--- a/analysis/xlsx/2022/2022_나이대별_판매량.xlsx
+++ b/analysis/xlsx/2022/2022_나이대별_판매량.xlsx
@@ -437,7 +437,7 @@
     <col width="5" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="205" customWidth="1" min="5" max="5"/>
+    <col width="215" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,9 +485,9 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2022년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-2022년도 20대 - 공급가액: 925721200.0, 예측 공급가액: 1274022266.666687
-2022년도 30대 - 공급가액: 1093498000.0, 예측 공급가액: 1480456200.0
-2022년도 40대 - 공급가액: 591015000.0, 예측 공급가액: 803171000.0</t>
+2022년도 20대 - 공급가액: 949329100.0, 예측 공급가액: 1289156466.666687
+2022년도 30대 - 공급가액: 1017886100.0, 예측 공급가액: 1395772666.666687
+2022년도 40대 - 공급가액: 643019000.0, 예측 공급가액: 872720333.333313</t>
         </is>
       </c>
     </row>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>925721200</v>
+        <v>949329100</v>
       </c>
       <c r="D3" t="n">
-        <v>1274022266.666687</v>
+        <v>1289156466.666687</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1093498000</v>
+        <v>1017886100</v>
       </c>
       <c r="D4" t="n">
-        <v>1480456200</v>
+        <v>1395772666.666687</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>591015000</v>
+        <v>643019000</v>
       </c>
       <c r="D5" t="n">
-        <v>803171000</v>
+        <v>872720333.333313</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
